--- a/dataset/happy.xlsx
+++ b/dataset/happy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\semi\AdvancedML_project\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lini1\AdvancedML_project\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9CF79E-3CC6-4B33-9BC6-6A4A28D92DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9C36AB-D7F0-490A-879E-3F19987DA880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9618" uniqueCount="5745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9618" uniqueCount="5746">
   <si>
     <t>0</t>
   </si>
@@ -17355,6 +17355,10 @@
   </si>
   <si>
     <t>어떻게 하면 행복할까요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행복하다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -17704,8 +17708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A6537" workbookViewId="0">
+      <selection activeCell="B2816" sqref="B2816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -18485,12 +18489,15 @@
       <c r="A97" t="s">
         <v>84</v>
       </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>85</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98">
         <v>0</v>
       </c>
     </row>
@@ -38759,6 +38766,9 @@
       </c>
     </row>
     <row r="2632" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2632" t="s">
+        <v>5745</v>
+      </c>
       <c r="B2632" t="s">
         <v>0</v>
       </c>
@@ -40222,6 +40232,9 @@
     <row r="2815" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2815" t="s">
         <v>2773</v>
+      </c>
+      <c r="B2815">
+        <v>0</v>
       </c>
     </row>
     <row r="2816" spans="1:2" x14ac:dyDescent="0.4">
